--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidPython\CovidPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A340C07E-3E39-4E2B-BBBF-22421820F94D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCBB0B-F88A-4C40-88AD-63B5D9FAA084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>KW</t>
   </si>
@@ -54,16 +54,13 @@
     <t>Stergios</t>
   </si>
   <si>
-    <t>drd</t>
-  </si>
-  <si>
-    <t>SEIR model, agent based model</t>
-  </si>
-  <si>
-    <t>work on app</t>
-  </si>
-  <si>
-    <t>app done</t>
+    <t>SEIR model, agent based model (19.03)</t>
+  </si>
+  <si>
+    <t>Reinforcement learning done (16.04)</t>
+  </si>
+  <si>
+    <t>Write the thesis</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +425,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="41.7109375" customWidth="1"/>
   </cols>
@@ -463,9 +460,6 @@
       <c r="C2" s="1">
         <v>44262</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -477,12 +471,6 @@
       <c r="C3" s="1">
         <v>44269</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -494,6 +482,9 @@
       <c r="C4" s="1">
         <v>44276</v>
       </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -505,9 +496,6 @@
       <c r="C5" s="1">
         <v>44283</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -541,6 +529,9 @@
       <c r="C8" s="1">
         <v>44304</v>
       </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -552,6 +543,9 @@
       <c r="C9" s="1">
         <v>44311</v>
       </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -620,9 +614,6 @@
       </c>
       <c r="D15" t="s">
         <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SterPol\Desktop\covid_thesis_python\CovidPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A340C07E-3E39-4E2B-BBBF-22421820F94D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61178AA-0C42-4CD0-A1AE-FE9F0FB6C463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>KW</t>
   </si>
@@ -54,16 +54,37 @@
     <t>Stergios</t>
   </si>
   <si>
-    <t>drd</t>
-  </si>
-  <si>
-    <t>SEIR model, agent based model</t>
-  </si>
-  <si>
     <t>work on app</t>
   </si>
   <si>
-    <t>app done</t>
+    <t>SEIR Model random working, first draft of an agent based model</t>
+  </si>
+  <si>
+    <t>SEIR agent based model ready, evaluation with supervisors</t>
+  </si>
+  <si>
+    <t>Continue working on reinforcement learning, final version of agent based model ready</t>
+  </si>
+  <si>
+    <t>First draft of reinforcement learning application</t>
+  </si>
+  <si>
+    <t>continue working on agent based model</t>
+  </si>
+  <si>
+    <t>Starting with reinforcemnt learning, literature etc, possible work for agent based model correction</t>
+  </si>
+  <si>
+    <t>Improvements / Corrections of reinforcement learning</t>
+  </si>
+  <si>
+    <t>Final version of reinforcemnet learning application to the model</t>
+  </si>
+  <si>
+    <t>Start thesis writing / possible needed corrections to the model in general</t>
+  </si>
+  <si>
+    <t>Writing thesis</t>
   </si>
 </sst>
 </file>
@@ -105,7 +126,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,21 +440,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7E983-B06D-4629-A802-B192BB851F1D}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="84.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9</v>
       </c>
@@ -463,11 +484,14 @@
       <c r="C2" s="1">
         <v>44262</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -478,13 +502,13 @@
         <v>44269</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -494,8 +518,11 @@
       <c r="C4" s="1">
         <v>44276</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -506,10 +533,10 @@
         <v>44283</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
@@ -519,8 +546,11 @@
       <c r="C6" s="1">
         <v>44290</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -530,8 +560,11 @@
       <c r="C7" s="1">
         <v>44297</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -541,8 +574,11 @@
       <c r="C8" s="1">
         <v>44304</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -552,8 +588,11 @@
       <c r="C9" s="1">
         <v>44311</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -563,8 +602,11 @@
       <c r="C10" s="1">
         <v>44318</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -574,8 +616,11 @@
       <c r="C11" s="1">
         <v>44325</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -585,8 +630,11 @@
       <c r="C12" s="1">
         <v>44332</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -596,8 +644,11 @@
       <c r="C13" s="1">
         <v>44339</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -607,8 +658,11 @@
       <c r="C14" s="1">
         <v>44346</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -616,16 +670,13 @@
         <v>44347</v>
       </c>
       <c r="C15" s="1">
-        <v>44353</v>
+        <v>44350</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SterPol\Desktop\covid_thesis_python\CovidPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidPython\CovidPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61178AA-0C42-4CD0-A1AE-FE9F0FB6C463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2071350-FAF1-4135-B225-F615033D54DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
+    <workbookView xWindow="1710" yWindow="3930" windowWidth="28800" windowHeight="15435" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>KW</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Stergios</t>
   </si>
   <si>
-    <t>work on app</t>
-  </si>
-  <si>
-    <t>SEIR Model random working, first draft of an agent based model</t>
-  </si>
-  <si>
     <t>SEIR agent based model ready, evaluation with supervisors</t>
   </si>
   <si>
@@ -85,6 +79,9 @@
   </si>
   <si>
     <t>Writing thesis</t>
+  </si>
+  <si>
+    <t>SEIR Model working, first draft of an agent based model</t>
   </si>
 </sst>
 </file>
@@ -126,7 +123,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,21 +437,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7E983-B06D-4629-A802-B192BB851F1D}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="84.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -485,13 +482,10 @@
         <v>44262</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -502,13 +496,10 @@
         <v>44269</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -519,10 +510,10 @@
         <v>44276</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -533,10 +524,10 @@
         <v>44283</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -547,10 +538,10 @@
         <v>44290</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -561,10 +552,10 @@
         <v>44297</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -575,10 +566,10 @@
         <v>44304</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -589,10 +580,10 @@
         <v>44311</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -603,10 +594,10 @@
         <v>44318</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -617,10 +608,10 @@
         <v>44325</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -631,10 +622,10 @@
         <v>44332</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -645,10 +636,10 @@
         <v>44339</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -659,10 +650,10 @@
         <v>44346</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -676,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidPython\CovidPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2071350-FAF1-4135-B225-F615033D54DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D34BA6-4C90-4180-85EE-657C1EBD3E97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="3930" windowWidth="28800" windowHeight="15435" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>KW</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>SEIR Model working, first draft of an agent based model</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +673,9 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
